--- a/matlab/logDataProcess/ipb1-13.xlsx
+++ b/matlab/logDataProcess/ipb1-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>reactor</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>seq</t>
+  </si>
+  <si>
+    <t>file</t>
   </si>
 </sst>
 </file>
@@ -936,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -947,21 +953,22 @@
     <col min="1" max="1" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="4.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -972,43 +979,46 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -1018,44 +1028,47 @@
       <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>3</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>0</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>0.9</v>
       </c>
-      <c r="L2" s="2">
+      <c r="M2" s="2">
         <v>1.6</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="2">
         <v>187</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -1065,69 +1078,81 @@
       <c r="C3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>4</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>6</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>0</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>0.9</v>
       </c>
-      <c r="L3" s="2">
+      <c r="M3" s="2">
         <v>1.6</v>
       </c>
-      <c r="M3" s="2">
+      <c r="N3" s="2">
         <v>187</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/matlab/logDataProcess/ipb1-13.xlsx
+++ b/matlab/logDataProcess/ipb1-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>reactor</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>file</t>
+  </si>
+  <si>
+    <t>coreL</t>
   </si>
 </sst>
 </file>
@@ -942,10 +945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="K2" sqref="K2:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -953,22 +956,23 @@
     <col min="1" max="1" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="4.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="2"/>
+    <col min="11" max="11" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1000,25 +1004,28 @@
         <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -1050,25 +1057,28 @@
         <v>18</v>
       </c>
       <c r="K2" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L2" s="2">
         <v>0</v>
       </c>
-      <c r="L2" s="2">
+      <c r="M2" s="2">
         <v>0.9</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="2">
         <v>1.6</v>
       </c>
-      <c r="N2" s="2">
+      <c r="O2" s="2">
         <v>187</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -1100,57 +1110,60 @@
         <v>18</v>
       </c>
       <c r="K3" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L3" s="2">
         <v>0</v>
       </c>
-      <c r="L3" s="2">
+      <c r="M3" s="2">
         <v>0.9</v>
       </c>
-      <c r="M3" s="2">
+      <c r="N3" s="2">
         <v>1.6</v>
       </c>
-      <c r="N3" s="2">
+      <c r="O3" s="2">
         <v>187</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
